--- a/data/trans_camb/CoTrAQ_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/CoTrAQ_R-Habitat-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-23.93629410230916</v>
+        <v>-23.41093370395235</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-32.83238312603039</v>
+        <v>-32.98568406749267</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-25.15432734444727</v>
+        <v>-24.27411521977055</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-5.596532309702077</v>
+        <v>-5.985540543922615</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-12.36834176423189</v>
+        <v>-11.73814834980188</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-11.38109305327741</v>
+        <v>-11.84520101745721</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3099807298734912</v>
+        <v>-0.3043929241243189</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4366761787776844</v>
+        <v>-0.4349648182060962</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3359761768759111</v>
+        <v>-0.3253010829563097</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.0813504380002345</v>
+        <v>-0.08674101709860849</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1874024994967211</v>
+        <v>-0.1715493479380635</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1646403397253279</v>
+        <v>-0.1712086539285307</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-22.87223237397469</v>
+        <v>-23.42023905574112</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-23.91941570899498</v>
+        <v>-23.13395192125298</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-21.19424496378952</v>
+        <v>-21.13437229034107</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-8.944807719765436</v>
+        <v>-9.42953831717174</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-6.456076356092792</v>
+        <v>-6.958817528098871</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-10.80610239089423</v>
+        <v>-10.57793175367445</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3040445511575913</v>
+        <v>-0.3083132117744</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3372808482171649</v>
+        <v>-0.3333836666355002</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2925870218836702</v>
+        <v>-0.2906867009621651</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1288127840781388</v>
+        <v>-0.1341217416910532</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1017088805800641</v>
+        <v>-0.1137328161015039</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1587558278658384</v>
+        <v>-0.1540833935340206</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-38.06934355073246</v>
+        <v>-37.91140620301476</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-32.70798063262748</v>
+        <v>-32.12239591679721</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-32.95373774332128</v>
+        <v>-33.22457020487375</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-21.94385660110433</v>
+        <v>-21.91373765430616</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-14.60817102904006</v>
+        <v>-13.65756280769449</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-21.52084082261043</v>
+        <v>-21.26908738462405</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5078604136026552</v>
+        <v>-0.5132164923948783</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4763292570421117</v>
+        <v>-0.4613303979041968</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4674431802302591</v>
+        <v>-0.4700305834276985</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.333189853105794</v>
+        <v>-0.3305775240800501</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.2387925104592326</v>
+        <v>-0.2273232078287962</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.3249477059874803</v>
+        <v>-0.3210665135005197</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-12.99698971656954</v>
+        <v>-12.20889658382566</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-14.34471527661962</v>
+        <v>-12.66304226504018</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-11.63679541349473</v>
+        <v>-10.97738819635595</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.06028643942271128</v>
+        <v>0.9892698569950384</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.330232812081134</v>
+        <v>2.878173617914427</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.065560840809179</v>
+        <v>-0.4798277113810485</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1797956395575124</v>
+        <v>-0.1728929286544896</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2120985459776235</v>
+        <v>-0.1932130818677417</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1711309424054386</v>
+        <v>-0.1632394016362341</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.001084881347151183</v>
+        <v>0.01558940838065145</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.0404587835259794</v>
+        <v>0.05100480755588731</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.01662555560636632</v>
+        <v>-0.006643310144095668</v>
       </c>
     </row>
     <row r="28">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-20.44274103449042</v>
+        <v>-20.55559632666799</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-20.16852866754985</v>
+        <v>-20.51610766674411</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-19.3166428355919</v>
+        <v>-19.19071620378395</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-13.21909668842669</v>
+        <v>-12.93771296249948</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-11.12586961736011</v>
+        <v>-10.95590002037891</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-13.54890169929824</v>
+        <v>-13.65168615046579</v>
       </c>
     </row>
     <row r="31">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2795441931569492</v>
+        <v>-0.2847304397210287</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2990697708534423</v>
+        <v>-0.3041639405259913</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2749702804217938</v>
+        <v>-0.2729048137656268</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.188983395451946</v>
+        <v>-0.1869172092367919</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1754078738069091</v>
+        <v>-0.1727550714991882</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2000983801488108</v>
+        <v>-0.2015528401626942</v>
       </c>
     </row>
     <row r="34">
